--- a/biology/Médecine/Amifampridine/Amifampridine.xlsx
+++ b/biology/Médecine/Amifampridine/Amifampridine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'amifampridine ou 3,4-diaminopyridine est  un composé organique dérivé de la pyridine par substitution des carbones 3 et 4 par des groupes amine. Elle a pour effet de bloquer les canaux potassiques voltage-dépendants. Elle est utilisée comme médicament chez l'homme, sous forme de phosphate d'amifampridine, dans la prise en charge du syndrome myasthénique de Lambert-Eaton.
@@ -512,7 +524,9 @@
           <t>Développement et commercialisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amifampridine est autorisée comme médicament en Europe depuis 2009 sous le nom commercial de Firdapse. Un médicament générique est également enregistré en France depuis juin 2022 (Amifampridin Axunio).
 </t>
@@ -543,7 +557,9 @@
           <t>Posologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les doses utilisées chez l'adulte vont de 15 à 60 mg par jour.
 </t>
